--- a/doc/Scripts/DT_ScriptTable_NPC_04.xlsx
+++ b/doc/Scripts/DT_ScriptTable_NPC_04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\doc\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E468794-00C3-4BAD-9ADD-3ED16D02137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099E893F-9E2C-4E98-A51D-8652FFE1994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
+    <workbookView xWindow="35145" yWindow="6630" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>

--- a/doc/Scripts/DT_ScriptTable_NPC_04.xlsx
+++ b/doc/Scripts/DT_ScriptTable_NPC_04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\doc\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099E893F-9E2C-4E98-A51D-8652FFE1994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE199790-AE0A-4292-8BC2-256AEB1FEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35145" yWindow="6630" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
+    <workbookView xWindow="37425" yWindow="6630" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ScriptString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScriptImageSprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>기본 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScriptDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -500,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -523,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>

--- a/doc/Scripts/DT_ScriptTable_NPC_04.xlsx
+++ b/doc/Scripts/DT_ScriptTable_NPC_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\GameDev\doc\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE199790-AE0A-4292-8BC2-256AEB1FEB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB1B710-23B5-4E05-B5C4-B25FF1D19D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37425" yWindow="6630" windowWidth="18450" windowHeight="8970" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F549ABD1-2D24-4F68-BF86-0CBA93716AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ScriptSprite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScriptShowName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>ScriptDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterSprite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -494,16 +494,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -523,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
